--- a/PC2/Diff/DIFF/KCl/Differenz_Spline_Linear_KCl.xlsx
+++ b/PC2/Diff/DIFF/KCl/Differenz_Spline_Linear_KCl.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\OneDrive\Desktop\Protokolle\PC2\Diff\DIFF\KCl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D125BAF5-1742-4811-B784-22FF288F8D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB45F2-2599-471F-9403-113ECADB6453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3D6A022-5070-4B86-8350-B65243CB1488}"/>
   </bookViews>
   <sheets>
     <sheet name="Differenz_Spline_Linear_KCl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -742,26 +755,20 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="de-DE" sz="1000" b="0" i="0" baseline="0">
+                      <a:rPr lang="de-DE" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                         <a:effectLst/>
                       </a:rPr>
                       <a:t>Z</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="de-DE" sz="1000" b="0" i="0" baseline="30000">
+                      <a:rPr lang="de-DE" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="30000">
                         <a:effectLst/>
                       </a:rPr>
                       <a:t>-2</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="de-DE" sz="1800" b="0" i="0" baseline="0">
-                        <a:effectLst/>
-                      </a:rPr>
-                      <a:t> </a:t>
-                    </a:r>
-                    <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>= 0.0016t + 0.0038</a:t>
+                      <a:t> = 26.077t + 3751.7</a:t>
                     </a:r>
                     <a:br>
                       <a:rPr lang="en-US" baseline="0"/>
@@ -813,14 +820,14 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Differenz_Spline_Linear_KCl!$B$2:$B$23</c:f>
+              <c:f>Differenz_Spline_Linear_KCl!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -828,142 +835,142 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Differenz_Spline_Linear_KCl!$F$2:$F$23</c:f>
+              <c:f>Differenz_Spline_Linear_KCl!$G$2:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>4.0922470000000002E-3</c:v>
+                  <c:v>4092.2471435153916</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9150050000000001E-3</c:v>
+                  <c:v>4915.0054996290728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4820509999999999E-3</c:v>
+                  <c:v>5482.0507361067066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.729334E-3</c:v>
+                  <c:v>6729.3335128005037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1698100000000004E-3</c:v>
+                  <c:v>7169.8102061668069</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6066939999999998E-3</c:v>
+                  <c:v>7606.6941011453673</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9426829999999999E-3</c:v>
+                  <c:v>8942.6828554119002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4877380000000008E-3</c:v>
+                  <c:v>9487.7384859214944</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0236224E-2</c:v>
+                  <c:v>10236.224071233439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0961623E-2</c:v>
+                  <c:v>10961.622967564945</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0698022999999999E-2</c:v>
+                  <c:v>10698.022530915938</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2412225000000001E-2</c:v>
+                  <c:v>12412.225203152298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1890370000000001E-2</c:v>
+                  <c:v>11890.370053572895</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4526705000000001E-2</c:v>
+                  <c:v>14526.705036595726</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5591460999999999E-2</c:v>
+                  <c:v>15591.461034133614</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6442663E-2</c:v>
+                  <c:v>16442.663080318012</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.946817E-2</c:v>
+                  <c:v>19468.169650873897</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0369523E-2</c:v>
+                  <c:v>20369.522649762126</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2635089000000001E-2</c:v>
+                  <c:v>22635.089449740775</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3136261000000002E-2</c:v>
+                  <c:v>23136.261341394711</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.5515383999999999E-2</c:v>
+                  <c:v>25515.384206862214</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0145348999999998E-2</c:v>
+                  <c:v>30145.349029930785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,16 +1887,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68262</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2234,15 +2241,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90928A7E-01B9-4193-9EC0-FEE2421D8EFF}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="C2" sqref="C2:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2273,13 +2280,19 @@
         <v>112.46160380000001</v>
       </c>
       <c r="E2">
-        <v>15.63216293</v>
+        <f>D2*0.139</f>
+        <v>15.632162928200001</v>
       </c>
       <c r="F2">
-        <v>4.0922470000000002E-3</v>
+        <f>E2/1000</f>
+        <v>1.5632162928200001E-2</v>
+      </c>
+      <c r="G2">
+        <f>F2^-2</f>
+        <v>4092.2471435153916</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2293,13 +2306,19 @@
         <v>102.61791719999999</v>
       </c>
       <c r="E3">
-        <v>14.26389049</v>
+        <f t="shared" ref="E3:E23" si="0">D3*0.139</f>
+        <v>14.2638904908</v>
       </c>
       <c r="F3">
-        <v>4.9150050000000001E-3</v>
+        <f t="shared" ref="F3:F23" si="1">E3/1000</f>
+        <v>1.4263890490799999E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G23" si="2">F3^-2</f>
+        <v>4915.0054996290728</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2313,13 +2332,19 @@
         <v>97.165854530000004</v>
       </c>
       <c r="E4">
-        <v>13.50605378</v>
+        <f t="shared" si="0"/>
+        <v>13.506053779670001</v>
       </c>
       <c r="F4">
-        <v>5.4820509999999999E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.3506053779670001E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>5482.0507361067066</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2333,13 +2358,19 @@
         <v>87.699915169999997</v>
       </c>
       <c r="E5">
-        <v>12.19028821</v>
+        <f t="shared" si="0"/>
+        <v>12.190288208630001</v>
       </c>
       <c r="F5">
-        <v>6.729334E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2190288208630001E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>6729.3335128005037</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2353,13 +2384,19 @@
         <v>84.963299570000004</v>
       </c>
       <c r="E6">
-        <v>11.80989864</v>
+        <f t="shared" si="0"/>
+        <v>11.809898640230001</v>
       </c>
       <c r="F6">
-        <v>7.1698100000000004E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.180989864023E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>7169.8102061668069</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2373,13 +2410,19 @@
         <v>82.487325740000003</v>
       </c>
       <c r="E7">
-        <v>11.46573828</v>
+        <f t="shared" si="0"/>
+        <v>11.465738277860002</v>
       </c>
       <c r="F7">
-        <v>7.6066939999999998E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.1465738277860002E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>7606.6941011453673</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2393,13 +2436,19 @@
         <v>76.076633319999999</v>
       </c>
       <c r="E8">
-        <v>10.574652029999999</v>
+        <f t="shared" si="0"/>
+        <v>10.574652031480001</v>
       </c>
       <c r="F8">
-        <v>8.9426829999999999E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.0574652031480001E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>8942.6828554119002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2413,13 +2462,19 @@
         <v>73.859072049999995</v>
       </c>
       <c r="E9">
-        <v>10.266411010000001</v>
+        <f t="shared" si="0"/>
+        <v>10.26641101495</v>
       </c>
       <c r="F9">
-        <v>9.4877380000000008E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.0266411014950001E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>9487.7384859214944</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2433,13 +2488,19 @@
         <v>71.107483259999995</v>
       </c>
       <c r="E10">
-        <v>9.8839401729999992</v>
+        <f t="shared" si="0"/>
+        <v>9.883940173140001</v>
       </c>
       <c r="F10">
-        <v>1.0236224E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.8839401731400014E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>10236.224071233439</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2453,13 +2514,19 @@
         <v>68.71440174</v>
       </c>
       <c r="E11">
-        <v>9.5513018420000009</v>
+        <f t="shared" si="0"/>
+        <v>9.5513018418600009</v>
       </c>
       <c r="F11">
-        <v>1.0961623E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.55130184186E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>10961.622967564945</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2473,13 +2540,19 @@
         <v>69.55581531</v>
       </c>
       <c r="E12">
-        <v>9.6682583280000003</v>
+        <f t="shared" si="0"/>
+        <v>9.6682583280900012</v>
       </c>
       <c r="F12">
-        <v>1.0698022999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.6682583280900004E-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>10698.022530915938</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2493,13 +2566,19 @@
         <v>64.574399529999994</v>
       </c>
       <c r="E13">
-        <v>8.9758415350000007</v>
+        <f t="shared" si="0"/>
+        <v>8.9758415346699998</v>
       </c>
       <c r="F13">
-        <v>1.2412225000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.9758415346699993E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>12412.225203152298</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2513,13 +2592,19 @@
         <v>65.976232839999994</v>
       </c>
       <c r="E14">
-        <v>9.1706963649999995</v>
+        <f t="shared" si="0"/>
+        <v>9.1706963647599995</v>
       </c>
       <c r="F14">
-        <v>1.1890370000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.170696364759999E-3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>11890.370053572895</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2533,13 +2618,19 @@
         <v>59.690008480000003</v>
       </c>
       <c r="E15">
-        <v>8.2969111790000003</v>
+        <f t="shared" si="0"/>
+        <v>8.2969111787200003</v>
       </c>
       <c r="F15">
-        <v>1.4526705000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.2969111787199994E-3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>14526.705036595726</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2553,13 +2644,19 @@
         <v>57.615826060000003</v>
       </c>
       <c r="E16">
-        <v>8.0085998220000008</v>
+        <f t="shared" si="0"/>
+        <v>8.0085998223400008</v>
       </c>
       <c r="F16">
-        <v>1.5591460999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.0085998223400016E-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>15591.461034133614</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2573,13 +2670,19 @@
         <v>56.104684020000001</v>
       </c>
       <c r="E17">
-        <v>7.7985510790000001</v>
+        <f t="shared" si="0"/>
+        <v>7.798551078780001</v>
       </c>
       <c r="F17">
-        <v>1.6442663E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.7985510787800007E-3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>16442.663080318012</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2593,13 +2696,19 @@
         <v>51.561155169999999</v>
       </c>
       <c r="E18">
-        <v>7.1670005689999998</v>
+        <f t="shared" si="0"/>
+        <v>7.1670005686300007</v>
       </c>
       <c r="F18">
-        <v>1.946817E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.1670005686300005E-3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>19468.169650873897</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2613,13 +2722,19 @@
         <v>50.407455329999998</v>
       </c>
       <c r="E19">
-        <v>7.0066362910000004</v>
+        <f t="shared" si="0"/>
+        <v>7.0066362908700004</v>
       </c>
       <c r="F19">
-        <v>2.0369523E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.0066362908700001E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>20369.522649762126</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2633,13 +2748,19 @@
         <v>47.818295579999997</v>
       </c>
       <c r="E20">
-        <v>6.6467430859999999</v>
+        <f t="shared" si="0"/>
+        <v>6.6467430856199998</v>
       </c>
       <c r="F20">
-        <v>2.2635089000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.6467430856199999E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>22635.089449740775</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2653,13 +2774,19 @@
         <v>47.297546089999997</v>
       </c>
       <c r="E21">
-        <v>6.5743589069999997</v>
+        <f t="shared" si="0"/>
+        <v>6.5743589065100005</v>
       </c>
       <c r="F21">
-        <v>2.3136261000000002E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.5743589065100005E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>23136.261341394711</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2673,13 +2800,19 @@
         <v>45.038523400000003</v>
       </c>
       <c r="E22">
-        <v>6.2603547529999997</v>
+        <f t="shared" si="0"/>
+        <v>6.2603547526000005</v>
       </c>
       <c r="F22">
-        <v>2.5515383999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.2603547526000006E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>25515.384206862214</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2693,10 +2826,16 @@
         <v>41.435734480000001</v>
       </c>
       <c r="E23">
-        <v>5.7595670930000002</v>
+        <f t="shared" si="0"/>
+        <v>5.7595670927200002</v>
       </c>
       <c r="F23">
-        <v>3.0145348999999998E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.7595670927200002E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>30145.349029930785</v>
       </c>
     </row>
   </sheetData>

--- a/PC2/Diff/DIFF/KCl/Differenz_Spline_Linear_KCl.xlsx
+++ b/PC2/Diff/DIFF/KCl/Differenz_Spline_Linear_KCl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\OneDrive\Desktop\Protokolle\PC2\Diff\DIFF\KCl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB45F2-2599-471F-9403-113ECADB6453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F34E8F-96DC-40C1-9D99-48E2982F46AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3D6A022-5070-4B86-8350-B65243CB1488}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3D6A022-5070-4B86-8350-B65243CB1488}"/>
   </bookViews>
   <sheets>
     <sheet name="Differenz_Spline_Linear_KCl" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2241,15 +2263,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90928A7E-01B9-4193-9EC0-FEE2421D8EFF}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G23"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +2288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2291,8 +2313,15 @@
         <f>F2^-2</f>
         <v>4092.2471435153916</v>
       </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:I6">LINEST(G2:G23, C2:C23, TRUE, TRUE)</f>
+        <v>26.077084411122808</v>
+      </c>
+      <c r="I2">
+        <v>3751.6533601205356</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2317,8 +2346,14 @@
         <f t="shared" ref="G3:G23" si="2">F3^-2</f>
         <v>4915.0054996290728</v>
       </c>
+      <c r="H3">
+        <v>0.70102274525477681</v>
+      </c>
+      <c r="I3">
+        <v>324.75523957182361</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2343,8 +2378,14 @@
         <f t="shared" si="2"/>
         <v>5482.0507361067066</v>
       </c>
+      <c r="H4">
+        <v>0.98575232633865517</v>
+      </c>
+      <c r="I4">
+        <v>888.14604558639473</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2369,8 +2410,14 @@
         <f t="shared" si="2"/>
         <v>6729.3335128005037</v>
       </c>
+      <c r="H5">
+        <v>1383.7379347241676</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2395,8 +2442,14 @@
         <f t="shared" si="2"/>
         <v>7169.8102061668069</v>
       </c>
+      <c r="H6">
+        <v>1091497185.2542479</v>
+      </c>
+      <c r="I6">
+        <v>15776067.965815008</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2475,7 @@
         <v>7606.6941011453673</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2448,7 +2501,7 @@
         <v>8942.6828554119002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2474,7 +2527,7 @@
         <v>9487.7384859214944</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2500,7 +2553,7 @@
         <v>10236.224071233439</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2526,7 +2579,7 @@
         <v>10961.622967564945</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2552,7 +2605,7 @@
         <v>10698.022530915938</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2578,7 +2631,7 @@
         <v>12412.225203152298</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2604,7 +2657,7 @@
         <v>11890.370053572895</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2630,7 +2683,7 @@
         <v>14526.705036595726</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2836,6 +2889,12 @@
       <c r="G23">
         <f t="shared" si="2"/>
         <v>30145.349029930785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <f>SLOPE(G2:G23,C2:C23)</f>
+        <v>26.077084411122804</v>
       </c>
     </row>
   </sheetData>

--- a/PC2/Diff/DIFF/KCl/Differenz_Spline_Linear_KCl.xlsx
+++ b/PC2/Diff/DIFF/KCl/Differenz_Spline_Linear_KCl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\OneDrive\Desktop\Protokolle\PC2\Diff\DIFF\KCl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F34E8F-96DC-40C1-9D99-48E2982F46AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0703B3B-5052-4C28-851F-D656BA4E9728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3D6A022-5070-4B86-8350-B65243CB1488}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2266,7 +2266,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2604,6 +2604,10 @@
         <f t="shared" si="2"/>
         <v>10698.022530915938</v>
       </c>
+      <c r="H12">
+        <f>H3/H2</f>
+        <v>2.6882711817114248E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
